--- a/BalanceSheet/DTE_bal.xlsx
+++ b/BalanceSheet/DTE_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>52000000.0</v>
+        <v>664000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>99000000.0</v>
+        <v>716000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-30000000.0</v>
+        <v>815000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-79000000.0</v>
+        <v>785000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>55000000.0</v>
+        <v>707000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>759000000.0</v>
@@ -1647,19 +1647,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-20000000.0</v>
+        <v>955000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>80000000.0</v>
+        <v>1029000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-2000000.0</v>
+        <v>964000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-54000000.0</v>
+        <v>1025000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-24000000.0</v>
+        <v>1028000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>1076000000.0</v>
@@ -2663,19 +2663,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>41000000.0</v>
+        <v>3054000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>57000000.0</v>
+        <v>2984000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>64000000.0</v>
+        <v>2899000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>73000000.0</v>
+        <v>2813000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>213000000.0</v>
+        <v>2718000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>2481000000.0</v>
@@ -4278,7 +4278,7 @@
         <v>18024000000.0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>17517000000.0</v>
+        <v>17357000000.0</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>15712000000.0</v>
@@ -4405,7 +4405,7 @@
         <v>18700000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>17610000000.0</v>
+        <v>17450000000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>15788000000.0</v>
